--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1503963.647646963</v>
+        <v>1499951.844914866</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.96014034</v>
+        <v>6432656.960140345</v>
       </c>
     </row>
     <row r="9">
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>169.9058934509584</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>113.2422805558811</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>42.55016972231576</v>
       </c>
       <c r="I13" t="n">
-        <v>67.50662802375605</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>396.7656558320667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>144.8462543019385</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>15.7577587957926</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>106.2618375106215</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>353.88820426454</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T17" t="n">
-        <v>124.5197461497711</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T18" t="n">
         <v>136.1757056744559</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>86.83190091728351</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>237.097464026797</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V19" t="n">
-        <v>20.89085534589831</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>377.9590339072124</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.469605806954</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T21" t="n">
         <v>136.1757056744559</v>
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>39.55078293791851</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>152.8999186087154</v>
@@ -2298,10 +2298,10 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>245.6825230791966</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2329,13 +2329,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>82.12184235444401</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -2383,10 +2383,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>106.0669611312169</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T24" t="n">
         <v>136.1757056744559</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2560,7 +2560,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -2569,10 +2569,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>336.6436628717309</v>
       </c>
       <c r="Y26" t="n">
-        <v>160.1768618375432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T27" t="n">
         <v>136.1757056744559</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2794,7 +2794,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>122.2104053463651</v>
+        <v>100.5449301978316</v>
       </c>
       <c r="G29" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161367</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304347</v>
       </c>
       <c r="T30" t="n">
         <v>136.1757056744559</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>360.7104957101445</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3043,10 +3043,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>298.472391684864</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U32" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T33" t="n">
         <v>136.1757056744559</v>
@@ -3207,7 +3207,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I34" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>251.8930850696556</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -3280,7 +3280,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>179.7660691496004</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T36" t="n">
         <v>136.1757056744559</v>
@@ -3429,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>84.68167320744465</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>31.03050415969098</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U37" t="n">
         <v>277.3339849899809</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>163.5207447165623</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.985251148995488</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.612391572116</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T39" t="n">
         <v>136.1757056744559</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>129.1218798812948</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4334047779237</v>
+        <v>113.9353216629384</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>277.773005362385</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>146.6705654500047</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T42" t="n">
         <v>136.1757056744559</v>
@@ -3903,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>33.65440423673159</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7030512222169</v>
+        <v>15.75775879579279</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3960,13 +3960,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>362.78738232299</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>164.5618721450739</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.76258397304346</v>
+        <v>60.76258397304348</v>
       </c>
       <c r="T45" t="n">
         <v>136.1757056744559</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>134.4334047779237</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>174.8357264134924</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>231.3981287543607</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043.61014426184</v>
+        <v>469.6561482825904</v>
       </c>
       <c r="C11" t="n">
-        <v>616.7094142751398</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="D11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F11" t="n">
-        <v>445.0872996782122</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G11" t="n">
         <v>42.75541829589048</v>
@@ -5038,19 +5038,19 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103617</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5077,16 +5077,16 @@
         <v>1820.94792342712</v>
       </c>
       <c r="V11" t="n">
-        <v>1463.45850855337</v>
+        <v>1706.561781451483</v>
       </c>
       <c r="W11" t="n">
-        <v>1463.45850855337</v>
+        <v>1706.561781451483</v>
       </c>
       <c r="X11" t="n">
-        <v>1463.45850855337</v>
+        <v>1294.84178261923</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.45850855337</v>
+        <v>889.5045125741204</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J12" t="n">
         <v>404.4659091426543</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.1344099985472</v>
+        <v>761.1345483022199</v>
       </c>
       <c r="C13" t="n">
-        <v>750.1618468774632</v>
+        <v>589.1619851811358</v>
       </c>
       <c r="D13" t="n">
-        <v>750.1618468774632</v>
+        <v>589.1619851811358</v>
       </c>
       <c r="E13" t="n">
-        <v>583.9536410303167</v>
+        <v>422.9537793339894</v>
       </c>
       <c r="F13" t="n">
-        <v>412.0918668048771</v>
+        <v>251.0920051085498</v>
       </c>
       <c r="G13" t="n">
-        <v>246.7352494086984</v>
+        <v>85.73538771237105</v>
       </c>
       <c r="H13" t="n">
-        <v>110.9439314511996</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I13" t="n">
         <v>42.75541829589048</v>
@@ -5205,46 +5205,46 @@
         <v>166.4811349991142</v>
       </c>
       <c r="L13" t="n">
-        <v>330.5264893877352</v>
+        <v>481.8999867656339</v>
       </c>
       <c r="M13" t="n">
-        <v>859.6247907993799</v>
+        <v>1010.998288177279</v>
       </c>
       <c r="N13" t="n">
-        <v>1372.15296878278</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O13" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P13" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.770914794524</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="U13" t="n">
-        <v>2137.770914794524</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="V13" t="n">
-        <v>1856.059447402553</v>
+        <v>1695.059585706225</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.207043575066</v>
+        <v>1420.207181878738</v>
       </c>
       <c r="X13" t="n">
-        <v>1338.643147020871</v>
+        <v>1177.643285324544</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.300378710613</v>
+        <v>951.3005170142856</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1717.922550502993</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="C14" t="n">
         <v>1317.149160773633</v>
       </c>
       <c r="D14" t="n">
-        <v>893.8565399586328</v>
+        <v>893.8565399586327</v>
       </c>
       <c r="E14" t="n">
-        <v>467.8796001064903</v>
+        <v>467.8796001064902</v>
       </c>
       <c r="F14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103563</v>
+        <v>84.39494262103611</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072042</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K14" t="n">
-        <v>437.069171561</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848318</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5293,37 +5293,37 @@
         <v>1332.07042163564</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q14" t="n">
         <v>2048.878716272599</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794523</v>
+        <v>1932.832910568712</v>
       </c>
       <c r="U14" t="n">
-        <v>2137.770914794523</v>
+        <v>1674.638575647383</v>
       </c>
       <c r="V14" t="n">
-        <v>2137.770914794523</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="W14" t="n">
-        <v>2137.770914794523</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="X14" t="n">
-        <v>2137.770914794523</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="Y14" t="n">
-        <v>2137.770914794523</v>
+        <v>1317.149160773633</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J15" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K15" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L15" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M15" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N15" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O15" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P15" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.955188520548</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C16" t="n">
-        <v>917.9826253994636</v>
+        <v>214.61719252133</v>
       </c>
       <c r="D16" t="n">
-        <v>754.6658525262343</v>
+        <v>214.61719252133</v>
       </c>
       <c r="E16" t="n">
-        <v>588.4576466790878</v>
+        <v>214.61719252133</v>
       </c>
       <c r="F16" t="n">
-        <v>416.5958724536483</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G16" t="n">
-        <v>251.2392550574695</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J16" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484805</v>
       </c>
       <c r="K16" t="n">
         <v>166.4811349991141</v>
       </c>
       <c r="L16" t="n">
-        <v>652.3645187823271</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M16" t="n">
-        <v>1181.462820193972</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.526466160678</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O16" t="n">
         <v>2003.682813232011</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880157</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S16" t="n">
-        <v>2131.215415329221</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.215415329221</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.880225924553</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V16" t="n">
-        <v>2023.880225924553</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W16" t="n">
-        <v>1749.027822097066</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.463925542871</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.121157232613</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>320.0677541164978</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="C17" t="n">
-        <v>320.0677541164978</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="D17" t="n">
-        <v>320.0677541164978</v>
+        <v>893.8565399586327</v>
       </c>
       <c r="E17" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064902</v>
       </c>
       <c r="F17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="G17" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103615</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J17" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L17" t="n">
         <v>709.585180084832</v>
@@ -5539,28 +5539,28 @@
         <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S17" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T17" t="n">
-        <v>1953.364736985043</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U17" t="n">
-        <v>1953.364736985043</v>
+        <v>1608.808787422828</v>
       </c>
       <c r="V17" t="n">
-        <v>1953.364736985043</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="W17" t="n">
-        <v>1556.97338728539</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="X17" t="n">
-        <v>1145.253388453138</v>
+        <v>1251.319372549077</v>
       </c>
       <c r="Y17" t="n">
-        <v>739.9161184080278</v>
+        <v>1251.319372549077</v>
       </c>
     </row>
     <row r="18">
@@ -5588,28 +5588,28 @@
         <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745214</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L18" t="n">
-        <v>496.0652591283641</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M18" t="n">
-        <v>739.8954600838655</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N18" t="n">
-        <v>992.520525718061</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
         <v>1556.439737111774</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.8072531668702</v>
+        <v>438.2282902000121</v>
       </c>
       <c r="C19" t="n">
-        <v>616.8346900457861</v>
+        <v>266.2557270789281</v>
       </c>
       <c r="D19" t="n">
-        <v>453.5179171725568</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="E19" t="n">
-        <v>287.3097113254104</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="F19" t="n">
-        <v>115.4479370999708</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4479370999708</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="H19" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J19" t="n">
-        <v>84.71320548484806</v>
+        <v>84.71320548484805</v>
       </c>
       <c r="K19" t="n">
         <v>166.4811349991141</v>
@@ -5682,43 +5682,43 @@
         <v>652.364518782327</v>
       </c>
       <c r="M19" t="n">
-        <v>768.3405774192804</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N19" t="n">
-        <v>1280.868755402681</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O19" t="n">
-        <v>1761.025102474014</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880157</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S19" t="n">
         <v>1983.326552563497</v>
       </c>
       <c r="T19" t="n">
-        <v>1743.834164657642</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="U19" t="n">
-        <v>1743.834164657642</v>
+        <v>1463.698826283923</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.732290570876</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W19" t="n">
-        <v>1447.879886743389</v>
+        <v>907.134955064465</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.315990189194</v>
+        <v>664.5710585102701</v>
       </c>
       <c r="Y19" t="n">
-        <v>978.9732218789359</v>
+        <v>438.2282902000121</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>504.4739319259783</v>
+        <v>1104.176437425297</v>
       </c>
       <c r="C20" t="n">
-        <v>77.57320193927836</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="D20" t="n">
-        <v>77.57320193927836</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="E20" t="n">
-        <v>77.57320193927836</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="F20" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988194</v>
       </c>
       <c r="G20" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103619</v>
       </c>
       <c r="J20" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610003</v>
       </c>
       <c r="L20" t="n">
         <v>709.585180084832</v>
@@ -5764,40 +5764,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S20" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348448</v>
       </c>
       <c r="T20" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="U20" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344157</v>
       </c>
       <c r="V20" t="n">
-        <v>2137.770914794524</v>
+        <v>1509.513707470406</v>
       </c>
       <c r="W20" t="n">
-        <v>1741.379565094871</v>
+        <v>1509.513707470406</v>
       </c>
       <c r="X20" t="n">
-        <v>1329.659566262618</v>
+        <v>1509.513707470406</v>
       </c>
       <c r="Y20" t="n">
-        <v>924.3222962175083</v>
+        <v>1104.176437425297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I21" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J21" t="n">
-        <v>165.481020982128</v>
+        <v>299.0104088577485</v>
       </c>
       <c r="K21" t="n">
-        <v>313.2719753503762</v>
+        <v>446.8013632259967</v>
       </c>
       <c r="L21" t="n">
-        <v>519.522564972776</v>
+        <v>653.0519528483965</v>
       </c>
       <c r="M21" t="n">
-        <v>763.3527659282773</v>
+        <v>896.8821538038978</v>
       </c>
       <c r="N21" t="n">
-        <v>1015.977831562473</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.9065285156433</v>
+        <v>248.0623214879465</v>
       </c>
       <c r="C22" t="n">
-        <v>377.9339653945593</v>
+        <v>248.0623214879465</v>
       </c>
       <c r="D22" t="n">
-        <v>214.6171925213301</v>
+        <v>248.0623214879465</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>248.0623214879465</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>248.0623214879465</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>82.70570409176773</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589045</v>
       </c>
       <c r="J22" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484805</v>
       </c>
       <c r="K22" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L22" t="n">
-        <v>652.3645187823271</v>
+        <v>481.8999867656329</v>
       </c>
       <c r="M22" t="n">
-        <v>768.3405774192805</v>
+        <v>1010.998288177277</v>
       </c>
       <c r="N22" t="n">
-        <v>1280.868755402681</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O22" t="n">
-        <v>1761.025102474014</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880157</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794522</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657641</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1463.698826283923</v>
       </c>
       <c r="V22" t="n">
-        <v>1457.143326818623</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W22" t="n">
-        <v>1208.979162092162</v>
+        <v>907.134955064465</v>
       </c>
       <c r="X22" t="n">
-        <v>966.4152655379669</v>
+        <v>664.5710585102701</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.0724972277089</v>
+        <v>438.2282902000121</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1844.316519459584</v>
+        <v>1613.553317556011</v>
       </c>
       <c r="C23" t="n">
-        <v>1417.415789472884</v>
+        <v>1186.652587569311</v>
       </c>
       <c r="D23" t="n">
-        <v>994.123168657884</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="E23" t="n">
-        <v>568.1462288057415</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="F23" t="n">
-        <v>143.0220469951417</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G23" t="n">
-        <v>143.0220469951417</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
         <v>60.07069108156194</v>
@@ -5989,52 +5989,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>982.926134527205</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L23" t="n">
-        <v>1255.442143051037</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M23" t="n">
-        <v>1563.814994331854</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N23" t="n">
-        <v>2197.834060919214</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O23" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>3003.534554078097</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2646.045139204346</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W23" t="n">
-        <v>2249.653789504693</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X23" t="n">
-        <v>2249.653789504693</v>
+        <v>1613.553317556011</v>
       </c>
       <c r="Y23" t="n">
-        <v>1844.316519459584</v>
+        <v>1613.553317556011</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965738</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189736</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M24" t="n">
-        <v>1019.652926874475</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N24" t="n">
-        <v>1272.27799250867</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O24" t="n">
-        <v>1499.76985653153</v>
+        <v>1260.784968371003</v>
       </c>
       <c r="P24" t="n">
-        <v>1679.210510182351</v>
+        <v>1440.225622021825</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1107.27046130622</v>
+        <v>1107.270461306219</v>
       </c>
       <c r="C25" t="n">
-        <v>935.2978981851355</v>
+        <v>935.2978981851346</v>
       </c>
       <c r="D25" t="n">
-        <v>771.9811253119062</v>
+        <v>771.9811253119053</v>
       </c>
       <c r="E25" t="n">
-        <v>605.7729194647598</v>
+        <v>605.7729194647588</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393203</v>
+        <v>433.9111452393194</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431414</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H25" t="n">
-        <v>132.7632098856425</v>
+        <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
         <v>60.07069108156194</v>
@@ -6162,37 +6162,37 @@
         <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.53469238177</v>
+        <v>2842.534692381769</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475915</v>
+        <v>2603.042304475914</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.779198328543</v>
+        <v>1523.779198328542</v>
       </c>
       <c r="Y25" t="n">
-        <v>1297.436430018285</v>
+        <v>1297.436430018284</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2163.697044928325</v>
+        <v>1615.384878551612</v>
       </c>
       <c r="C26" t="n">
-        <v>1736.796314941625</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.503694126626</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="E26" t="n">
-        <v>887.5267542744834</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F26" t="n">
-        <v>462.4025724638836</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G26" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
@@ -6226,52 +6226,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>805.1497020512068</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L26" t="n">
-        <v>1077.665710575038</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1386.038561855856</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1700.150952125847</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>1994.591395126371</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.340219156767</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="V26" t="n">
-        <v>2745.340219156767</v>
+        <v>2375.277346753981</v>
       </c>
       <c r="W26" t="n">
-        <v>2745.340219156767</v>
+        <v>2375.277346753981</v>
       </c>
       <c r="X26" t="n">
-        <v>2745.340219156767</v>
+        <v>2035.233242843142</v>
       </c>
       <c r="Y26" t="n">
-        <v>2583.545409219855</v>
+        <v>2035.233242843142</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>182.7962937677995</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965738</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6375,7 +6375,7 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H28" t="n">
         <v>132.7632098856423</v>
@@ -6390,19 +6390,19 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L28" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1012.748156335801</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="C29" t="n">
-        <v>585.8474263491009</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="D29" t="n">
-        <v>585.8474263491009</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="E29" t="n">
-        <v>585.8474263491009</v>
+        <v>841.2754438378563</v>
       </c>
       <c r="F29" t="n">
-        <v>462.4025724638836</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K29" t="n">
-        <v>715.5922017133104</v>
+        <v>846.1136630542979</v>
       </c>
       <c r="L29" t="n">
-        <v>988.1082102371422</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M29" t="n">
-        <v>1731.483012371471</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N29" t="n">
-        <v>2045.595402641462</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O29" t="n">
-        <v>2340.035845641986</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P29" t="n">
-        <v>2585.727538982948</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q29" t="n">
         <v>2762.403697278422</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>3003.534554078097</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2646.045139204346</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W29" t="n">
-        <v>2249.653789504693</v>
+        <v>2078.181077006749</v>
       </c>
       <c r="X29" t="n">
-        <v>1837.93379067244</v>
+        <v>1666.461078174496</v>
       </c>
       <c r="Y29" t="n">
-        <v>1432.596520627331</v>
+        <v>1261.123808129386</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434199</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116681</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340678</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895692</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6600,19 +6600,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C31" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D31" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E31" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F31" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G31" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431409</v>
       </c>
       <c r="H31" t="n">
         <v>132.7632098856423</v>
@@ -6624,22 +6624,22 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>397.2373026266569</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>883.1206864098698</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1611.776769379911</v>
+        <v>2062.852427874149</v>
       </c>
       <c r="C32" t="n">
-        <v>1611.776769379911</v>
+        <v>1635.951697887449</v>
       </c>
       <c r="D32" t="n">
-        <v>1188.484148564912</v>
+        <v>1212.65907707245</v>
       </c>
       <c r="E32" t="n">
-        <v>762.5072087127692</v>
+        <v>786.6821372203073</v>
       </c>
       <c r="F32" t="n">
-        <v>337.3830269021693</v>
+        <v>361.5579554097075</v>
       </c>
       <c r="G32" t="n">
-        <v>337.3830269021693</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,52 +6700,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>853.8984517107684</v>
+        <v>846.1136630542978</v>
       </c>
       <c r="L32" t="n">
-        <v>1126.4144602346</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1434.787311515417</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1748.899701785409</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129461</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470423</v>
       </c>
       <c r="Q32" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R32" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>3003.534554078097</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2745.340219156767</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2387.850804283017</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="W32" t="n">
-        <v>2387.850804283017</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.130805450764</v>
+        <v>2062.852427874149</v>
       </c>
       <c r="Y32" t="n">
-        <v>1976.130805450764</v>
+        <v>2062.852427874149</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275354</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434206</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965737</v>
+        <v>464.1166360116687</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340684</v>
       </c>
       <c r="M33" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895697</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897446</v>
       </c>
       <c r="Q33" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R33" t="n">
         <v>1832.965147628227</v>
@@ -6861,13 +6861,13 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>509.0007335470286</v>
+        <v>509.0007335470285</v>
       </c>
       <c r="L34" t="n">
         <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1524.395656430017</v>
+        <v>1412.632225509645</v>
       </c>
       <c r="N34" t="n">
         <v>1925.160403493045</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1148.293999624952</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="C35" t="n">
-        <v>893.8565399586328</v>
+        <v>1498.731048803532</v>
       </c>
       <c r="D35" t="n">
-        <v>893.8565399586328</v>
+        <v>1075.438427988532</v>
       </c>
       <c r="E35" t="n">
-        <v>467.8796001064903</v>
+        <v>649.4614881363897</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589047</v>
+        <v>224.3373063257899</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610008</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M35" t="n">
         <v>1017.958031365649</v>
@@ -6952,13 +6952,13 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P35" t="n">
         <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R35" t="n">
         <v>2137.770914794523</v>
@@ -6973,16 +6973,16 @@
         <v>1925.631778790232</v>
       </c>
       <c r="V35" t="n">
-        <v>1568.142363916482</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="W35" t="n">
-        <v>1568.142363916482</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="X35" t="n">
-        <v>1568.142363916482</v>
+        <v>1925.631778790232</v>
       </c>
       <c r="Y35" t="n">
-        <v>1568.142363916482</v>
+        <v>1925.631778790232</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C36" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D36" t="n">
         <v>377.0871448858306</v>
@@ -7007,31 +7007,31 @@
         <v>178.739380841672</v>
       </c>
       <c r="G36" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J36" t="n">
-        <v>299.0104088577483</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K36" t="n">
-        <v>446.8013632259966</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L36" t="n">
-        <v>653.0519528483964</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M36" t="n">
-        <v>896.8821538038977</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N36" t="n">
-        <v>1149.507219438093</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O36" t="n">
-        <v>1376.999083460952</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P36" t="n">
         <v>1556.439737111774</v>
@@ -7058,10 +7058,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X36" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y36" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>635.4435721595269</v>
+        <v>490.6262180421418</v>
       </c>
       <c r="C37" t="n">
-        <v>463.4710090384428</v>
+        <v>318.6536549210579</v>
       </c>
       <c r="D37" t="n">
-        <v>300.1542361652135</v>
+        <v>318.6536549210579</v>
       </c>
       <c r="E37" t="n">
-        <v>214.6171925213301</v>
+        <v>318.6536549210579</v>
       </c>
       <c r="F37" t="n">
-        <v>42.75541829589047</v>
+        <v>146.7918806956183</v>
       </c>
       <c r="G37" t="n">
-        <v>42.75541829589047</v>
+        <v>146.7918806956183</v>
       </c>
       <c r="H37" t="n">
-        <v>42.75541829589047</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484807</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K37" t="n">
-        <v>166.4811349991142</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L37" t="n">
-        <v>652.3645187823271</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M37" t="n">
-        <v>1010.998288177278</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N37" t="n">
-        <v>1523.526466160678</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O37" t="n">
         <v>2003.682813232012</v>
@@ -7119,28 +7119,28 @@
         <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S37" t="n">
-        <v>2131.215415329222</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.215415329222</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U37" t="n">
-        <v>1851.080076955504</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.368609563532</v>
+        <v>1181.987358891952</v>
       </c>
       <c r="W37" t="n">
-        <v>1294.516205736045</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="X37" t="n">
-        <v>1051.952309181851</v>
+        <v>907.1349550644654</v>
       </c>
       <c r="Y37" t="n">
-        <v>825.6095408715926</v>
+        <v>680.7921867542075</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>898.2280301628996</v>
+        <v>1058.121238508259</v>
       </c>
       <c r="C38" t="n">
-        <v>898.2280301628996</v>
+        <v>631.2205085215592</v>
       </c>
       <c r="D38" t="n">
-        <v>474.9354093478998</v>
+        <v>207.9278877065594</v>
       </c>
       <c r="E38" t="n">
-        <v>474.9354093478998</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F38" t="n">
-        <v>49.81122753730006</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M38" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O38" t="n">
         <v>1626.510864636164</v>
@@ -7195,31 +7195,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R38" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U38" t="n">
-        <v>1667.437443868903</v>
+        <v>1820.947923427119</v>
       </c>
       <c r="V38" t="n">
-        <v>1309.948028995152</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.948028995152</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="X38" t="n">
-        <v>898.2280301628996</v>
+        <v>1463.458508553369</v>
       </c>
       <c r="Y38" t="n">
-        <v>898.2280301628996</v>
+        <v>1058.121238508259</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C39" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D39" t="n">
         <v>377.0871448858306</v>
@@ -7244,31 +7244,31 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I39" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J39" t="n">
-        <v>299.0104088577483</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K39" t="n">
-        <v>446.8013632259966</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L39" t="n">
-        <v>653.0519528483964</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M39" t="n">
-        <v>896.8821538038977</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N39" t="n">
-        <v>1149.507219438093</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O39" t="n">
-        <v>1376.999083460952</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P39" t="n">
         <v>1556.439737111774</v>
@@ -7295,10 +7295,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X39" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y39" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>819.0154207412965</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C40" t="n">
-        <v>647.0428576202124</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="D40" t="n">
-        <v>647.0428576202124</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="E40" t="n">
-        <v>480.834651773066</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="F40" t="n">
-        <v>308.9728775476264</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="G40" t="n">
-        <v>178.5467362533892</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589047</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J40" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K40" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L40" t="n">
-        <v>601.1799509534052</v>
+        <v>481.8999867656337</v>
       </c>
       <c r="M40" t="n">
-        <v>1130.27825236505</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N40" t="n">
-        <v>1437.099088512675</v>
+        <v>1523.526466160678</v>
       </c>
       <c r="O40" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
         <v>2137.770914794523</v>
@@ -7362,10 +7362,10 @@
         <v>2137.770914794523</v>
       </c>
       <c r="T40" t="n">
-        <v>1898.278526888668</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U40" t="n">
-        <v>1618.14318851495</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V40" t="n">
         <v>1336.431721122978</v>
@@ -7374,10 +7374,10 @@
         <v>1061.579317295491</v>
       </c>
       <c r="X40" t="n">
-        <v>819.0154207412965</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y40" t="n">
-        <v>819.0154207412965</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1171.751014216828</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.751014216828</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="D41" t="n">
-        <v>748.4583934018287</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589047</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M41" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N41" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O41" t="n">
         <v>1626.510864636164</v>
@@ -7432,31 +7432,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q41" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R41" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T41" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U41" t="n">
-        <v>1925.631778790232</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V41" t="n">
-        <v>1568.142363916482</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W41" t="n">
-        <v>1171.751014216828</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="X41" t="n">
-        <v>1171.751014216828</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="Y41" t="n">
-        <v>1171.751014216828</v>
+        <v>1573.500757161562</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C42" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D42" t="n">
         <v>377.0871448858306</v>
@@ -7481,37 +7481,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G42" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J42" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333022</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R42" t="n">
         <v>1815.649874842555</v>
@@ -7532,10 +7532,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X42" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.2574936256924</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C43" t="n">
-        <v>577.2849305046084</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="D43" t="n">
-        <v>413.9681576313791</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="E43" t="n">
-        <v>379.9738099175088</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="F43" t="n">
-        <v>208.1120356920692</v>
+        <v>58.67234637244883</v>
       </c>
       <c r="G43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J43" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K43" t="n">
-        <v>321.3980373970701</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L43" t="n">
-        <v>430.8925275891181</v>
+        <v>652.364518782327</v>
       </c>
       <c r="M43" t="n">
-        <v>546.8685862260716</v>
+        <v>1181.462820193971</v>
       </c>
       <c r="N43" t="n">
-        <v>1059.396764209472</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794523</v>
@@ -7596,25 +7596,25 @@
         <v>2137.770914794523</v>
       </c>
       <c r="S43" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T43" t="n">
-        <v>1743.834164657642</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U43" t="n">
-        <v>1463.698826283924</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V43" t="n">
-        <v>1181.987358891953</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W43" t="n">
-        <v>1181.987358891953</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X43" t="n">
-        <v>939.423462337758</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.423462337758</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1293.504102303812</v>
+        <v>1262.084989471086</v>
       </c>
       <c r="C44" t="n">
-        <v>1293.504102303812</v>
+        <v>835.1842594843865</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>835.1842594843865</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>409.2073196322441</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>409.2073196322441</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103645</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072048</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610006</v>
+        <v>437.0691715610001</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848325</v>
+        <v>709.5851800848318</v>
       </c>
       <c r="M44" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N44" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636163</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R44" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T44" t="n">
-        <v>2137.770914794523</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U44" t="n">
-        <v>1879.576579873194</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V44" t="n">
-        <v>1879.576579873194</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W44" t="n">
-        <v>1713.352466595342</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X44" t="n">
-        <v>1713.352466595342</v>
+        <v>1667.422259516196</v>
       </c>
       <c r="Y44" t="n">
-        <v>1713.352466595342</v>
+        <v>1262.084989471086</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C45" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D45" t="n">
         <v>377.0871448858306</v>
@@ -7718,37 +7718,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H45" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I45" t="n">
-        <v>86.44169614186399</v>
+        <v>86.44169614186396</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577492</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259974</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333022</v>
+        <v>653.051952848397</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038983</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438094</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460953</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7769,10 +7769,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y45" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1017.262669716467</v>
+        <v>522.3810735999127</v>
       </c>
       <c r="C46" t="n">
-        <v>845.2901065953833</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="D46" t="n">
-        <v>681.9733337221541</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="E46" t="n">
-        <v>515.7651278750076</v>
+        <v>350.4085104788288</v>
       </c>
       <c r="F46" t="n">
-        <v>343.903353649568</v>
+        <v>178.5467362533892</v>
       </c>
       <c r="G46" t="n">
         <v>178.5467362533892</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484807</v>
+        <v>84.71320548484803</v>
       </c>
       <c r="K46" t="n">
-        <v>413.7637441131362</v>
+        <v>343.0420666477852</v>
       </c>
       <c r="L46" t="n">
-        <v>582.2660249670171</v>
+        <v>828.9254504309981</v>
       </c>
       <c r="M46" t="n">
-        <v>698.2420836039705</v>
+        <v>944.9015090679516</v>
       </c>
       <c r="N46" t="n">
-        <v>1210.770261587371</v>
+        <v>1059.396764209472</v>
       </c>
       <c r="O46" t="n">
-        <v>1690.926608658704</v>
+        <v>1539.553111280805</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794523</v>
       </c>
       <c r="R46" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S46" t="n">
-        <v>1976.771053098196</v>
+        <v>1983.326552563497</v>
       </c>
       <c r="T46" t="n">
-        <v>1800.169309246184</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U46" t="n">
-        <v>1800.169309246184</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.457841854212</v>
+        <v>1229.96334269366</v>
       </c>
       <c r="W46" t="n">
-        <v>1243.605438026725</v>
+        <v>955.1109388661733</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.605438026725</v>
+        <v>712.5470423119784</v>
       </c>
       <c r="Y46" t="n">
-        <v>1017.262669716467</v>
+        <v>712.5470423119784</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575132</v>
+        <v>241.3988769298245</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>55.10188302684142</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M13" t="n">
         <v>417.2951947219103</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9096,10 +9096,10 @@
         <v>417.29519472191</v>
       </c>
       <c r="N16" t="n">
-        <v>229.8670614395821</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>209.3311033197061</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>209.3311033197061</v>
       </c>
       <c r="P19" t="n">
-        <v>92.20627614151388</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.3988769298246</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>208.0044056307786</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>92.20627614151456</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>533.8804951318516</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>323.138056886231</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9810,13 +9810,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O25" t="n">
-        <v>268.6251448311431</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>354.3083411156918</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>502.7102109023911</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K27" t="n">
-        <v>241.3988769298244</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>267.2984471422157</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>263.8462195622612</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>439.3959099530423</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>307.5560500126511</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>136.888058781465</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891724</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>403.5495023879764</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>453.4690496301063</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>307.5560500126521</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713345</v>
       </c>
       <c r="K33" t="n">
-        <v>265.093125257513</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,10 +10515,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>304.8202520630811</v>
       </c>
       <c r="N34" t="n">
-        <v>289.1611029510189</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>158.5724178990224</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10752,13 +10752,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>245.108798745452</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>134.8781695713336</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>208.0044056307795</v>
       </c>
       <c r="M40" t="n">
         <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
-        <v>194.2682636425306</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>77.77291489872226</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>241.3988769298244</v>
+        <v>134.8781695713346</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,16 +11457,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>178.3443754026981</v>
       </c>
       <c r="L46" t="n">
-        <v>59.60382895134632</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>249.1538011558913</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -23272,7 +23272,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
         <v>274.5392124624013</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>240.672240169132</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>91.88323505560797</v>
       </c>
       <c r="I13" t="n">
-        <v>4.458965592283491</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>25.86606685476613</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.0177446442482</v>
+        <v>65.1714903423098</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>137.1421598129228</v>
       </c>
       <c r="T16" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>171.0721474793594</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>65.17149034230971</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>85.49799849447714</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>74.85170422721349</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.003497372153</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>44.67268877962044</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -23980,13 +23980,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.4033341855397</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.4334047779237</v>
+        <v>94.88262184000521</v>
       </c>
       <c r="I22" t="n">
         <v>71.96559361603954</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648581</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>26.42135671001554</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>192.4173701079573</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>301.5358377127133</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>70.95913597219931</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.1070355071154</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
@@ -24691,13 +24691,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6625346461286</v>
+        <v>320.3280097946621</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>54.93938493847025</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>99.8361708836344</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>170.7386376171773</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3085625684984</v>
+        <v>218.542493418898</v>
       </c>
       <c r="H35" t="n">
         <v>274.5392124624013</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161366</v>
+        <v>58.04236988161368</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>79.86445058123033</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4334047779237</v>
+        <v>103.4029006182327</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.097464026797</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>258.1964257370587</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>391.3233114195029</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
         <v>274.5392124624013</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>34.58117134092217</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>20.49808311498533</v>
       </c>
       <c r="I40" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>143.944165091236</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U41" t="n">
         <v>255.612391572116</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>245.7568707526518</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>130.8917195519434</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>147.9452924264241</v>
       </c>
       <c r="H43" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>35.52118024550839</v>
       </c>
       <c r="H44" t="n">
         <v>274.5392124624013</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>227.8655640575827</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>71.96559361603956</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.489944470648588</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.26173761330463</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>47.49622396369068</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>302878.0390001133</v>
+        <v>302878.0390001134</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>302878.0390001134</v>
+        <v>302878.0390001133</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>416843.6350106532</v>
+        <v>416843.6350106531</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>416843.6350106533</v>
+        <v>416843.6350106532</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>302878.0390001133</v>
+        <v>302878.0390001134</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>530725.4205566851</v>
       </c>
       <c r="C2" t="n">
-        <v>530725.4205566851</v>
+        <v>530725.4205566852</v>
       </c>
       <c r="D2" t="n">
         <v>530725.420556685</v>
       </c>
       <c r="E2" t="n">
-        <v>315596.4771804494</v>
+        <v>315596.4771804492</v>
       </c>
       <c r="F2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.4771804491</v>
       </c>
       <c r="G2" t="n">
-        <v>315596.4771804494</v>
+        <v>315596.4771804491</v>
       </c>
       <c r="H2" t="n">
         <v>315596.4771804491</v>
       </c>
       <c r="I2" t="n">
-        <v>396090.2160723279</v>
+        <v>396090.2160723284</v>
       </c>
       <c r="J2" t="n">
-        <v>396090.2160723279</v>
+        <v>396090.2160723284</v>
       </c>
       <c r="K2" t="n">
-        <v>396090.2160723279</v>
+        <v>396090.2160723283</v>
       </c>
       <c r="L2" t="n">
-        <v>396090.2160723282</v>
+        <v>396090.2160723283</v>
       </c>
       <c r="M2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.4771804491</v>
       </c>
       <c r="N2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.4771804491</v>
       </c>
       <c r="O2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.477180449</v>
       </c>
       <c r="P2" t="n">
-        <v>315596.4771804492</v>
+        <v>315596.4771804491</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048184</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160767</v>
+        <v>79247.32527160771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>21842.84887867283</v>
       </c>
       <c r="G4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867283</v>
       </c>
       <c r="H4" t="n">
-        <v>21842.84887867285</v>
+        <v>21842.84887867283</v>
       </c>
       <c r="I4" t="n">
-        <v>64149.91250646629</v>
+        <v>64149.91250646632</v>
       </c>
       <c r="J4" t="n">
+        <v>64149.91250646631</v>
+      </c>
+      <c r="K4" t="n">
         <v>64149.91250646632</v>
       </c>
-      <c r="K4" t="n">
-        <v>64149.9125064663</v>
-      </c>
       <c r="L4" t="n">
-        <v>64149.9125064663</v>
+        <v>64149.91250646636</v>
       </c>
       <c r="M4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867286</v>
       </c>
       <c r="N4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867286</v>
       </c>
       <c r="O4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867286</v>
       </c>
       <c r="P4" t="n">
-        <v>21842.84887867284</v>
+        <v>21842.84887867286</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>43269.71441650124</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650123</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173376.9665422405</v>
+        <v>173355.2529007441</v>
       </c>
       <c r="C6" t="n">
-        <v>173376.9665422405</v>
+        <v>173355.2529007442</v>
       </c>
       <c r="D6" t="n">
-        <v>173376.9665422404</v>
+        <v>173355.252900744</v>
       </c>
       <c r="E6" t="n">
-        <v>-306205.7420369783</v>
+        <v>-306808.8852551673</v>
       </c>
       <c r="F6" t="n">
-        <v>250483.9138852751</v>
+        <v>249880.7706670862</v>
       </c>
       <c r="G6" t="n">
-        <v>250483.9138852754</v>
+        <v>249880.7706670862</v>
       </c>
       <c r="H6" t="n">
-        <v>250483.913885275</v>
+        <v>249880.7706670862</v>
       </c>
       <c r="I6" t="n">
-        <v>217954.7986517683</v>
+        <v>217569.2060792335</v>
       </c>
       <c r="J6" t="n">
-        <v>275510.98183225</v>
+        <v>275125.3892597153</v>
       </c>
       <c r="K6" t="n">
-        <v>275510.98183225</v>
+        <v>275125.3892597152</v>
       </c>
       <c r="L6" t="n">
-        <v>275510.9818322504</v>
+        <v>275125.3892597152</v>
       </c>
       <c r="M6" t="n">
-        <v>171236.5886136674</v>
+        <v>170633.4453954784</v>
       </c>
       <c r="N6" t="n">
-        <v>250483.9138852751</v>
+        <v>249880.7706670861</v>
       </c>
       <c r="O6" t="n">
-        <v>250483.9138852751</v>
+        <v>249880.770667086</v>
       </c>
       <c r="P6" t="n">
-        <v>250483.9138852751</v>
+        <v>249880.7706670861</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>494.2934179644261</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.293417964426</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="O3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
       <c r="P3" t="n">
-        <v>494.2934179644261</v>
+        <v>494.2934179644259</v>
       </c>
     </row>
     <row r="4">
@@ -26801,13 +26801,13 @@
         <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="G4" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208936</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777374</v>
+        <v>318.0018188777375</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31992,34 +31992,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J14" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L14" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O14" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R14" t="n">
         <v>124.822749411891</v>
@@ -32028,10 +32028,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H15" t="n">
         <v>10.26824628639308</v>
@@ -32083,34 +32083,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P15" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H16" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I16" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
@@ -32171,19 +32171,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O16" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P16" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S16" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T16" t="n">
         <v>3.80849026956197</v>
@@ -32238,13 +32238,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K17" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L17" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N17" t="n">
         <v>354.5648655314068</v>
@@ -32256,7 +32256,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R17" t="n">
         <v>124.822749411891</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H18" t="n">
         <v>10.26824628639308</v>
@@ -32320,16 +32320,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L18" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M18" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N18" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O18" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P18" t="n">
         <v>203.0240267107093</v>
@@ -32341,10 +32341,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741881</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
@@ -32408,7 +32408,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O19" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P19" t="n">
         <v>107.8045841409626</v>
@@ -32417,7 +32417,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S19" t="n">
         <v>15.53377839734105</v>
@@ -32475,13 +32475,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K20" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L20" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N20" t="n">
         <v>354.5648655314068</v>
@@ -32493,7 +32493,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q20" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R20" t="n">
         <v>124.822749411891</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H21" t="n">
         <v>10.26824628639308</v>
@@ -32557,16 +32557,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L21" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M21" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N21" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O21" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P21" t="n">
         <v>203.0240267107093</v>
@@ -32578,10 +32578,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S21" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741881</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
@@ -32645,7 +32645,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O22" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P22" t="n">
         <v>107.8045841409626</v>
@@ -32654,7 +32654,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R22" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S22" t="n">
         <v>15.53377839734105</v>
@@ -32712,13 +32712,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K23" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L23" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N23" t="n">
         <v>354.5648655314068</v>
@@ -32730,7 +32730,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R23" t="n">
         <v>124.822749411891</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H24" t="n">
         <v>10.26824628639308</v>
@@ -32794,16 +32794,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L24" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M24" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N24" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O24" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P24" t="n">
         <v>203.0240267107093</v>
@@ -32815,10 +32815,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S24" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741881</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H25" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I25" t="n">
         <v>26.80528896108724</v>
@@ -32882,7 +32882,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O25" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P25" t="n">
         <v>107.8045841409626</v>
@@ -32891,7 +32891,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R25" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S25" t="n">
         <v>15.53377839734105</v>
@@ -32949,13 +32949,13 @@
         <v>168.6534109867667</v>
       </c>
       <c r="K26" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L26" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N26" t="n">
         <v>354.5648655314068</v>
@@ -32967,7 +32967,7 @@
         <v>285.7487894273645</v>
       </c>
       <c r="Q26" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R26" t="n">
         <v>124.822749411891</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H27" t="n">
         <v>10.26824628639308</v>
@@ -33031,16 +33031,16 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L27" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M27" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N27" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O27" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P27" t="n">
         <v>203.0240267107093</v>
@@ -33052,10 +33052,10 @@
         <v>66.01148702551338</v>
       </c>
       <c r="S27" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741881</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
@@ -33119,7 +33119,7 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O28" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P28" t="n">
         <v>107.8045841409626</v>
@@ -33128,7 +33128,7 @@
         <v>74.63830611262833</v>
       </c>
       <c r="R28" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S28" t="n">
         <v>15.53377839734105</v>
@@ -33177,34 +33177,34 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
       </c>
       <c r="K29" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L29" t="n">
         <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O29" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q29" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R29" t="n">
         <v>124.822749411891</v>
@@ -33213,10 +33213,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H30" t="n">
         <v>10.26824628639308</v>
@@ -33268,34 +33268,34 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L30" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M30" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N30" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874764</v>
       </c>
       <c r="O30" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P30" t="n">
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S30" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842522</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932271</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003425</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33356,19 +33356,19 @@
         <v>136.4006738458228</v>
       </c>
       <c r="O31" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P31" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R31" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270905</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T31" t="n">
         <v>3.80849026956197</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J32" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K32" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L32" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M32" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O32" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q32" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R32" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H33" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K33" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L33" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M33" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N33" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O33" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P33" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S33" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K34" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L34" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M34" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N34" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O34" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P34" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R34" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T34" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H35" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J35" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K35" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L35" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M35" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N35" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O35" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P35" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q35" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R35" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T35" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H36" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L36" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M36" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N36" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O36" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P36" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R36" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S36" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H37" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K37" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L37" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M37" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N37" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O37" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P37" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R37" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S37" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T37" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H38" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J38" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K38" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L38" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M38" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N38" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O38" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P38" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q38" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R38" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T38" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H39" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K39" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L39" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M39" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N39" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O39" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P39" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R39" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S39" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H40" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K40" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L40" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M40" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N40" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O40" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P40" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R40" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S40" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T40" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H41" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J41" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K41" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L41" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M41" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N41" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O41" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596217</v>
       </c>
       <c r="R41" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S41" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T41" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H42" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I42" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L42" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M42" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O42" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P42" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R42" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S42" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T42" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H43" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I43" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J43" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K43" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L43" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M43" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N43" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O43" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P43" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R43" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S43" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.98710921794744</v>
+        <v>1.987109217947439</v>
       </c>
       <c r="H44" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I44" t="n">
-        <v>76.60802812491903</v>
+        <v>76.60802812491873</v>
       </c>
       <c r="J44" t="n">
-        <v>168.6534109867667</v>
+        <v>168.6534109867666</v>
       </c>
       <c r="K44" t="n">
-        <v>252.7677441824819</v>
+        <v>252.7677441824818</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112409</v>
+        <v>313.5807379112408</v>
       </c>
       <c r="M44" t="n">
-        <v>348.9189914659137</v>
+        <v>348.9189914659136</v>
       </c>
       <c r="N44" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314067</v>
       </c>
       <c r="O44" t="n">
-        <v>334.805548245442</v>
+        <v>334.8055482454419</v>
       </c>
       <c r="P44" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273644</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.5854405596218</v>
+        <v>214.5854405596224</v>
       </c>
       <c r="R44" t="n">
-        <v>124.822749411891</v>
+        <v>124.8227494118909</v>
       </c>
       <c r="S44" t="n">
-        <v>45.28125130397733</v>
+        <v>45.28125130397731</v>
       </c>
       <c r="T44" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564919</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.063197163168766</v>
+        <v>1.063197163168765</v>
       </c>
       <c r="H45" t="n">
         <v>10.26824628639308</v>
       </c>
       <c r="I45" t="n">
-        <v>36.6056918020825</v>
+        <v>36.60569180208249</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4488161921859</v>
+        <v>100.4488161921858</v>
       </c>
       <c r="K45" t="n">
-        <v>171.6830261244932</v>
+        <v>171.6830261244931</v>
       </c>
       <c r="L45" t="n">
-        <v>230.8490156257445</v>
+        <v>230.8490156257444</v>
       </c>
       <c r="M45" t="n">
-        <v>269.3899127906122</v>
+        <v>269.3899127906121</v>
       </c>
       <c r="N45" t="n">
-        <v>276.5198621874765</v>
+        <v>276.5198621874763</v>
       </c>
       <c r="O45" t="n">
-        <v>252.9616513614738</v>
+        <v>252.9616513614737</v>
       </c>
       <c r="P45" t="n">
-        <v>203.0240267107093</v>
+        <v>203.0240267107092</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R45" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551336</v>
       </c>
       <c r="S45" t="n">
-        <v>19.74842099131456</v>
+        <v>19.74842099131455</v>
       </c>
       <c r="T45" t="n">
-        <v>4.285430670842523</v>
+        <v>4.285430670842521</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741879</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932269</v>
       </c>
       <c r="H46" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003423</v>
       </c>
       <c r="I46" t="n">
-        <v>26.80528896108724</v>
+        <v>26.80528896108723</v>
       </c>
       <c r="J46" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507114</v>
       </c>
       <c r="K46" t="n">
-        <v>103.5585226489404</v>
+        <v>103.5585226489403</v>
       </c>
       <c r="L46" t="n">
-        <v>132.519255039184</v>
+        <v>132.5192550391839</v>
       </c>
       <c r="M46" t="n">
         <v>139.7229738682065</v>
       </c>
       <c r="N46" t="n">
-        <v>136.4006738458228</v>
+        <v>136.4006738458227</v>
       </c>
       <c r="O46" t="n">
-        <v>125.9880993854246</v>
+        <v>125.9880993854245</v>
       </c>
       <c r="P46" t="n">
         <v>107.8045841409626</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.63830611262834</v>
+        <v>74.6383061126283</v>
       </c>
       <c r="R46" t="n">
-        <v>40.07828270905001</v>
+        <v>40.07828270904999</v>
       </c>
       <c r="S46" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80849026956197</v>
+        <v>3.808490269561969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04861902471781245</v>
+        <v>0.04861902471781243</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163658</v>
+        <v>321.236578788677</v>
       </c>
       <c r="K12" t="n">
         <v>149.2837922911598</v>
@@ -35573,7 +35573,7 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L13" t="n">
-        <v>165.7023781703242</v>
+        <v>318.6049007742623</v>
       </c>
       <c r="M13" t="n">
         <v>534.442728698631</v>
@@ -35588,7 +35588,7 @@
         <v>85.42378348297615</v>
       </c>
       <c r="Q13" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J14" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K14" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M14" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O14" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J15" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
@@ -35737,19 +35737,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P15" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K16" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L16" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986307</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N16" t="n">
-        <v>345.5188343098044</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O16" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067062</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K17" t="n">
         <v>217.0031433876725</v>
@@ -35901,13 +35901,13 @@
         <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171331</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550232</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
@@ -35974,13 +35974,13 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>339.8256034049031</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
         <v>112.9691469604239</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L19" t="n">
         <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N19" t="n">
         <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067062</v>
       </c>
       <c r="P19" t="n">
-        <v>177.63005962449</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J20" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K20" t="n">
         <v>217.0031433876725</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550237</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301864</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
@@ -36211,10 +36211,10 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O21" t="n">
-        <v>471.1886385690761</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P21" t="n">
         <v>181.2531855058806</v>
@@ -36223,7 +36223,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116929</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622837</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507201</v>
+        <v>318.6049007742614</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986306</v>
       </c>
       <c r="N22" t="n">
         <v>517.7052302862629</v>
@@ -36296,10 +36296,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P22" t="n">
-        <v>177.6300596244907</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>750.8836385195242</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L23" t="n">
         <v>275.2686954786179</v>
@@ -36369,7 +36369,7 @@
         <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
-        <v>640.4232995831918</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
         <v>297.4145888894179</v>
@@ -36378,10 +36378,10 @@
         <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
-        <v>79.83770185885255</v>
+        <v>79.83770185885254</v>
       </c>
       <c r="K24" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
         <v>208.3339289115149</v>
@@ -36448,7 +36448,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392515</v>
@@ -36457,10 +36457,10 @@
         <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.9691469604239</v>
+        <v>247.8473165317577</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36530,13 +36530,13 @@
         <v>517.7052302862629</v>
       </c>
       <c r="O25" t="n">
-        <v>372.1140567181432</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>571.3114845033643</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
         <v>275.2686954786179</v>
@@ -36612,13 +36612,13 @@
         <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K27" t="n">
-        <v>390.6826692209842</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
         <v>208.3339289115149</v>
@@ -36685,7 +36685,7 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392515</v>
@@ -36697,7 +36697,7 @@
         <v>112.9691469604239</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>377.8989422856984</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M28" t="n">
         <v>534.8601405048234</v>
@@ -36773,7 +36773,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K29" t="n">
-        <v>480.8493629499337</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M29" t="n">
-        <v>750.8836385195242</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O29" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q29" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R29" t="n">
         <v>243.5665220198734</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301863</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36922,19 +36922,19 @@
         <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,16 +36992,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
-        <v>219.4819269776934</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M31" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O31" t="n">
         <v>485.006411183165</v>
@@ -37010,7 +37010,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
-        <v>620.5526457756489</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L32" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N32" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O32" t="n">
-        <v>750.8836385195242</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550238</v>
+        <v>486.0168159676758</v>
       </c>
       <c r="R32" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.715871430187</v>
       </c>
       <c r="K33" t="n">
-        <v>414.3769175486728</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P33" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R33" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048234</v>
+        <v>421.9677860398018</v>
       </c>
       <c r="N34" t="n">
-        <v>404.8128758212413</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011808</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L35" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N35" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O35" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P35" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q35" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4101197578749</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O36" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P36" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q36" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R36" t="n">
-        <v>148.85927498986</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K37" t="n">
-        <v>82.59386819622839</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L37" t="n">
-        <v>490.7912967507202</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M37" t="n">
-        <v>362.2563327221727</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N37" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O37" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P37" t="n">
-        <v>85.42378348297616</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.0187433478434</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J38" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L38" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N38" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O38" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894185</v>
       </c>
       <c r="P38" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J39" t="n">
-        <v>214.7158714301862</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O39" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P39" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R39" t="n">
-        <v>148.85927498986</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K40" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986308</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N40" t="n">
-        <v>309.920036512753</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O40" t="n">
-        <v>103.4889118870001</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P40" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J41" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K41" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L41" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M41" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O41" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P41" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q41" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550236</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J42" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L42" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M42" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N42" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O42" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P42" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R42" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>121.0904079163419</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K43" t="n">
-        <v>160.3667830949506</v>
+        <v>82.59386819622834</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M43" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O43" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P43" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297612</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.06012558095554</v>
+        <v>42.06012558095523</v>
       </c>
       <c r="J44" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011801</v>
       </c>
       <c r="K44" t="n">
-        <v>217.0031433876725</v>
+        <v>217.0031433876724</v>
       </c>
       <c r="L44" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786178</v>
       </c>
       <c r="M44" t="n">
-        <v>311.4877285664818</v>
+        <v>311.4877285664817</v>
       </c>
       <c r="N44" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969607</v>
       </c>
       <c r="O44" t="n">
-        <v>297.4145888894179</v>
+        <v>297.4145888894178</v>
       </c>
       <c r="P44" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171331</v>
       </c>
       <c r="Q44" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550244</v>
       </c>
       <c r="R44" t="n">
-        <v>89.79009951709452</v>
+        <v>89.79009951709446</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>44.12755337977123</v>
+        <v>44.12755337977121</v>
       </c>
       <c r="J45" t="n">
-        <v>321.2365787886769</v>
+        <v>214.7158714301871</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L45" t="n">
-        <v>208.3339289115149</v>
+        <v>208.3339289115148</v>
       </c>
       <c r="M45" t="n">
-        <v>246.2931322782842</v>
+        <v>246.2931322782841</v>
       </c>
       <c r="N45" t="n">
-        <v>255.1768339739348</v>
+        <v>255.1768339739347</v>
       </c>
       <c r="O45" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P45" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q45" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.8592749898599</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>42.38160322116927</v>
       </c>
       <c r="K46" t="n">
-        <v>332.3742814427153</v>
+        <v>260.9382435989265</v>
       </c>
       <c r="L46" t="n">
-        <v>170.2043240948291</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M46" t="n">
-        <v>117.1475339767207</v>
+        <v>117.1475339767206</v>
       </c>
       <c r="N46" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702223</v>
       </c>
       <c r="O46" t="n">
         <v>485.006411183165</v>
@@ -38195,7 +38195,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
